--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francisco\Desktop\quicksort_partition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HugoPiauilino/Desktop/quicksort_partition/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="13840"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,66 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
-  <si>
-    <t>0.000000</t>
-  </si>
-  <si>
-    <t>0.000025</t>
-  </si>
-  <si>
-    <t>0.000050</t>
-  </si>
-  <si>
-    <t>0.000075</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
   <si>
     <t xml:space="preserve">Media: </t>
   </si>
   <si>
-    <t>0.000125</t>
-  </si>
-  <si>
-    <t>0.000151</t>
-  </si>
-  <si>
-    <t>0.000726</t>
-  </si>
-  <si>
-    <t>0.000924</t>
-  </si>
-  <si>
     <t>Media:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.006553</t>
-  </si>
-  <si>
-    <t>0.005030</t>
-  </si>
-  <si>
-    <t>0.014484</t>
-  </si>
-  <si>
-    <t>0.019382</t>
-  </si>
-  <si>
-    <t>0.018372</t>
-  </si>
-  <si>
-    <t>0.024385</t>
-  </si>
-  <si>
-    <t>0.028452</t>
-  </si>
-  <si>
-    <t>0.039758</t>
-  </si>
-  <si>
-    <t>0.038983</t>
-  </si>
-  <si>
-    <t>0.057303</t>
   </si>
 </sst>
 </file>
@@ -145,44 +94,13 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -193,41 +111,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Plan1!$G$1:$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.000025</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.000075</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.000151</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000924</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> 0.006553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.019382</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.024385</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.039758</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Hoare</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -238,38 +129,198 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Plan1!$E$9:$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+            <c:numRef>
+              <c:f>Plan1!$D$1:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200000</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.038983</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$G$9</c:f>
+              <c:f>Plan1!$F$1:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.014484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.018372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.028452</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.038983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lomuto</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$D$1:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$H$1:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.006553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.019382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.024385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.039758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.057303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,16 +337,84 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="950464800"/>
-        <c:axId val="950450656"/>
+        <c:axId val="-2092128768"/>
+        <c:axId val="-2093295328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="950464800"/>
+        <c:axId val="-2092128768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400"/>
+                  <a:t>Quantidade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400" baseline="0"/>
+                  <a:t> de Elementos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.365933962979037"/>
+              <c:y val="0.849844377859847"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -318,7 +437,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -333,7 +452,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950450656"/>
+        <c:crossAx val="-2093295328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -341,9 +460,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="950450656"/>
+        <c:axId val="-2093295328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.06"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -361,6 +481,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400"/>
+                  <a:t>Tempo em segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0192475940507437"/>
+              <c:y val="0.254309107379277"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -377,7 +560,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -392,7 +575,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950464800"/>
+        <c:crossAx val="-2092128768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -404,6 +587,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -435,54 +650,20 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -590,6 +771,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -600,6 +786,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -631,6 +822,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -988,20 +1182,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2338387</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1022,7 +1216,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1060,7 +1254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1132,7 +1326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1282,139 +1476,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D1">
         <v>100</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>2.5000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H2">
+        <v>7.4999999999999993E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>1.25E-4</v>
+      </c>
+      <c r="H3">
+        <v>1.5100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>7.2599999999999997E-4</v>
+      </c>
+      <c r="H4">
+        <v>9.2400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>30000</v>
+      </c>
+      <c r="F5">
+        <v>5.0299999999999997E-3</v>
+      </c>
+      <c r="H5">
+        <v>6.5529999999999998E-3</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E2">
-        <v>500</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>80000</v>
+      </c>
+      <c r="F6">
+        <v>1.4484E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.9382E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100000</v>
+      </c>
+      <c r="F7">
+        <v>1.8371999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.4385E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>150000</v>
+      </c>
+      <c r="F8">
+        <v>2.8452000000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.9758000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>30000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>80000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>100000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>150000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>200000</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
+      <c r="F9">
+        <v>3.8982999999999997E-2</v>
+      </c>
+      <c r="H9">
+        <v>5.7303E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>